--- a/BackEnd/Documents/ConsumoMantenimiento/Consumo-y-Mantenimiento-EmpresasNoviembre.xlsx
+++ b/BackEnd/Documents/ConsumoMantenimiento/Consumo-y-Mantenimiento-EmpresasNoviembre.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Información del mes de Noviembre del 2021</t>
   </si>
@@ -50,6 +50,21 @@
     <t>Adblue</t>
   </si>
   <si>
+    <t>NE-161121</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>456789</t>
+  </si>
+  <si>
+    <t>567843</t>
+  </si>
+  <si>
+    <t>35564</t>
+  </si>
+  <si>
     <t>REPORTE MENSUAL DE MANTENIMIENTO PREVENTIVO</t>
   </si>
   <si>
@@ -93,6 +108,21 @@
   </si>
   <si>
     <t>Observaciones</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>NE-1611211</t>
+  </si>
+  <si>
+    <t>16-Noviembre-2021</t>
+  </si>
+  <si>
+    <t>Preventivo</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
   </si>
 </sst>
 </file>
@@ -582,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F9"/>
+  <dimension ref="A4:F10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="13" customWidth="1"/>
@@ -658,6 +688,26 @@
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>12653</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -677,7 +727,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I7"/>
+  <dimension ref="A4:I8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
@@ -690,7 +740,7 @@
   <sheetData>
     <row r="4" ht="26" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -703,55 +753,78 @@
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1873467</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4623784</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/BackEnd/Documents/ConsumoMantenimiento/Consumo-y-Mantenimiento-EmpresasNoviembre.xlsx
+++ b/BackEnd/Documents/ConsumoMantenimiento/Consumo-y-Mantenimiento-EmpresasNoviembre.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Información del mes de Noviembre del 2021</t>
   </si>
@@ -65,6 +65,24 @@
     <t>35564</t>
   </si>
   <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>10012</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>REPORTE MENSUAL DE MANTENIMIENTO PREVENTIVO</t>
   </si>
   <si>
@@ -110,19 +128,19 @@
     <t>Observaciones</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>NE-1611211</t>
-  </si>
-  <si>
-    <t>16-Noviembre-2021</t>
-  </si>
-  <si>
-    <t>Preventivo</t>
-  </si>
-  <si>
-    <t>Ninguna</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>28-Noviembre-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preventivo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninguna </t>
   </si>
 </sst>
 </file>
@@ -612,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F10"/>
+  <dimension ref="A4:F12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="13" customWidth="1"/>
@@ -708,6 +726,46 @@
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>123</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -740,7 +798,7 @@
   <sheetData>
     <row r="4" ht="26" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -753,77 +811,77 @@
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1">
-        <v>1873467</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1">
-        <v>4623784</v>
+        <v>101</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
